--- a/Calificacion.xlsx
+++ b/Calificacion.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Mis documentos\Clases de JavaScript\proyecto_bienes_js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33094B5F-5F16-4A7D-B23D-4B9986079B23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C1D5F-2A78-41A3-953F-908DA9591AAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AE26355A-A4A9-49C6-9390-185572335807}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Especificación de requisitos</t>
   </si>
@@ -91,14 +91,49 @@
   </si>
   <si>
     <t>Gestión de pánico</t>
+  </si>
+  <si>
+    <t>Puntación personal</t>
+  </si>
+  <si>
+    <t>Puntuación máxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total: </t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Recuento</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Funcionan acorde al funcionamiendo de la api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,18 +157,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,146 +503,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ECA37D-EE8F-49D0-9C8C-697B32DB74AC}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUM(C3:C21)</f>
+        <v>99</v>
+      </c>
+      <c r="D22" s="5">
+        <f>SUM(D4:D21)</f>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -599,5 +815,6 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>